--- a/biology/Zoologie/Amastigote/Amastigote.xlsx
+++ b/biology/Zoologie/Amastigote/Amastigote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un amastigote est une cellule protiste qui n'a pas de flagelles ou de cils externes visibles. Le terme est utilisé principalement pour décrire une phase intracellulaire dans le cycle de vie des trypanosomes qui se réplique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un amastigote est une cellule protiste qui n'a pas de flagelles ou de cils externes visibles. Le terme est utilisé principalement pour décrire une phase intracellulaire dans le cycle de vie des trypanosomes qui se réplique.
 </t>
         </is>
       </c>
